--- a/data/insects_count.xlsx
+++ b/data/insects_count.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC7A31B6-FB92-2243-B17A-F8E384DED9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C997682-C395-A049-AD0B-AE0B1A9FB2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6280" yWindow="2140" windowWidth="24480" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="15">
   <si>
     <t>1RM</t>
-  </si>
-  <si>
-    <t>2RM</t>
-  </si>
-  <si>
-    <t>3RM</t>
   </si>
   <si>
     <t>day</t>
@@ -69,6 +63,24 @@
   </si>
   <si>
     <t>timepoint</t>
+  </si>
+  <si>
+    <t>10ml</t>
+  </si>
+  <si>
+    <t>30ml</t>
+  </si>
+  <si>
+    <t>60ml</t>
+  </si>
+  <si>
+    <t>RM_low</t>
+  </si>
+  <si>
+    <t>RM_mid</t>
+  </si>
+  <si>
+    <t>RM_high</t>
   </si>
 </sst>
 </file>
@@ -393,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H301"/>
+  <dimension ref="A1:H302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -411,28 +423,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -445,8 +457,8 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -471,8 +483,8 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>46</v>
@@ -497,8 +509,8 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>74</v>
@@ -523,8 +535,8 @@
       <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="1">
         <v>134</v>
@@ -549,8 +561,8 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -575,8 +587,8 @@
       <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="1">
         <v>108</v>
@@ -601,8 +613,8 @@
       <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -627,8 +639,8 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E9" s="1">
         <v>25</v>
@@ -653,8 +665,8 @@
       <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="1">
         <v>33</v>
@@ -679,8 +691,8 @@
       <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="1">
         <v>89</v>
@@ -705,8 +717,8 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
@@ -731,8 +743,8 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="1">
-        <v>2</v>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="1">
         <v>39</v>
@@ -757,8 +769,8 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -783,8 +795,8 @@
       <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15" s="1">
-        <v>2</v>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -809,8 +821,8 @@
       <c r="C16" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E16" s="1">
         <v>25</v>
@@ -835,8 +847,8 @@
       <c r="C17" s="1">
         <v>6</v>
       </c>
-      <c r="D17" s="1">
-        <v>2</v>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <v>25</v>
@@ -861,8 +873,8 @@
       <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="D18" s="1">
-        <v>2</v>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
@@ -887,8 +899,8 @@
       <c r="C19" s="1">
         <v>8</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E19" s="1">
         <v>19</v>
@@ -913,8 +925,8 @@
       <c r="C20" s="1">
         <v>9</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="1">
         <v>77</v>
@@ -939,8 +951,8 @@
       <c r="C21" s="1">
         <v>10</v>
       </c>
-      <c r="D21" s="1">
-        <v>2</v>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="1">
         <v>33</v>
@@ -965,8 +977,8 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
-        <v>3</v>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="1">
         <v>20</v>
@@ -991,8 +1003,8 @@
       <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="1">
-        <v>3</v>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E23" s="1">
         <v>27</v>
@@ -1017,8 +1029,8 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="1">
-        <v>3</v>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E24" s="1">
         <v>16</v>
@@ -1043,8 +1055,8 @@
       <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="1">
-        <v>3</v>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1069,8 +1081,8 @@
       <c r="C26" s="1">
         <v>5</v>
       </c>
-      <c r="D26" s="1">
-        <v>3</v>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E26" s="1">
         <v>5</v>
@@ -1095,8 +1107,8 @@
       <c r="C27" s="1">
         <v>6</v>
       </c>
-      <c r="D27" s="1">
-        <v>3</v>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E27" s="1">
         <v>16</v>
@@ -1121,8 +1133,8 @@
       <c r="C28" s="1">
         <v>7</v>
       </c>
-      <c r="D28" s="1">
-        <v>3</v>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E28" s="1">
         <v>25</v>
@@ -1147,8 +1159,8 @@
       <c r="C29" s="1">
         <v>8</v>
       </c>
-      <c r="D29" s="1">
-        <v>3</v>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E29" s="1">
         <v>8</v>
@@ -1173,8 +1185,8 @@
       <c r="C30" s="1">
         <v>9</v>
       </c>
-      <c r="D30" s="1">
-        <v>3</v>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E30" s="1">
         <v>32</v>
@@ -1199,8 +1211,8 @@
       <c r="C31" s="1">
         <v>10</v>
       </c>
-      <c r="D31" s="1">
-        <v>3</v>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E31" s="1">
         <v>15</v>
@@ -1226,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1">
         <v>7</v>
@@ -1252,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1">
         <v>40</v>
@@ -1278,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1">
         <v>41</v>
@@ -1304,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E35" s="1">
         <v>72</v>
@@ -1330,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E36" s="1">
         <v>115</v>
@@ -1356,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E37" s="1">
         <v>60</v>
@@ -1382,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1">
         <v>30</v>
@@ -1408,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E39" s="1">
         <v>57</v>
@@ -1434,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E40" s="1">
         <v>63</v>
@@ -1460,7 +1472,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E41" s="1">
         <v>108</v>
@@ -1486,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1">
         <v>16</v>
@@ -1512,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E43" s="1">
         <v>33</v>
@@ -1538,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1">
         <v>7</v>
@@ -1564,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E45" s="1">
         <v>19</v>
@@ -1590,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E46" s="1">
         <v>10</v>
@@ -1616,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E47" s="1">
         <v>20</v>
@@ -1642,7 +1654,7 @@
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1">
         <v>9</v>
@@ -1668,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1">
         <v>157</v>
@@ -1694,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E50" s="1">
         <v>13</v>
@@ -1720,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E51" s="1">
         <v>45</v>
@@ -1746,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E52" s="1">
         <v>20</v>
@@ -1772,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1">
         <v>18</v>
@@ -1798,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E54" s="1">
         <v>109</v>
@@ -1824,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E55" s="1">
         <v>47</v>
@@ -1850,7 +1862,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E56" s="1">
         <v>4</v>
@@ -1876,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E57" s="1">
         <v>93</v>
@@ -1902,7 +1914,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E58" s="1">
         <v>19</v>
@@ -1928,7 +1940,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E59" s="1">
         <v>80</v>
@@ -1954,7 +1966,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E60" s="1">
         <v>40</v>
@@ -1980,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E61" s="1">
         <v>12</v>
@@ -2005,8 +2017,8 @@
       <c r="C62" s="1">
         <v>1</v>
       </c>
-      <c r="D62" s="1">
-        <v>1</v>
+      <c r="D62" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E62" s="1">
         <v>5</v>
@@ -2031,8 +2043,8 @@
       <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="1">
-        <v>1</v>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E63" s="1">
         <v>34</v>
@@ -2057,8 +2069,8 @@
       <c r="C64" s="1">
         <v>3</v>
       </c>
-      <c r="D64" s="1">
-        <v>1</v>
+      <c r="D64" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E64" s="1">
         <v>74</v>
@@ -2083,8 +2095,8 @@
       <c r="C65" s="1">
         <v>4</v>
       </c>
-      <c r="D65" s="1">
-        <v>1</v>
+      <c r="D65" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E65" s="1">
         <v>68</v>
@@ -2109,8 +2121,8 @@
       <c r="C66" s="1">
         <v>5</v>
       </c>
-      <c r="D66" s="1">
-        <v>1</v>
+      <c r="D66" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E66" s="1">
         <v>4</v>
@@ -2135,8 +2147,8 @@
       <c r="C67" s="1">
         <v>6</v>
       </c>
-      <c r="D67" s="1">
-        <v>1</v>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E67" s="1">
         <v>43</v>
@@ -2161,8 +2173,8 @@
       <c r="C68" s="1">
         <v>7</v>
       </c>
-      <c r="D68" s="1">
-        <v>1</v>
+      <c r="D68" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E68" s="1">
         <v>7</v>
@@ -2187,8 +2199,8 @@
       <c r="C69" s="1">
         <v>8</v>
       </c>
-      <c r="D69" s="1">
-        <v>1</v>
+      <c r="D69" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E69" s="1">
         <v>50</v>
@@ -2213,8 +2225,8 @@
       <c r="C70" s="1">
         <v>9</v>
       </c>
-      <c r="D70" s="1">
-        <v>1</v>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E70" s="1">
         <v>55</v>
@@ -2239,8 +2251,8 @@
       <c r="C71" s="1">
         <v>10</v>
       </c>
-      <c r="D71" s="1">
-        <v>1</v>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E71" s="1">
         <v>101</v>
@@ -2265,8 +2277,8 @@
       <c r="C72" s="1">
         <v>1</v>
       </c>
-      <c r="D72" s="1">
-        <v>2</v>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E72" s="1">
         <v>22</v>
@@ -2291,8 +2303,8 @@
       <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="1">
-        <v>2</v>
+      <c r="D73" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E73" s="1">
         <v>45</v>
@@ -2317,8 +2329,8 @@
       <c r="C74" s="1">
         <v>3</v>
       </c>
-      <c r="D74" s="1">
-        <v>2</v>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E74" s="1">
         <v>2</v>
@@ -2343,8 +2355,8 @@
       <c r="C75" s="1">
         <v>4</v>
       </c>
-      <c r="D75" s="1">
-        <v>2</v>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -2369,8 +2381,8 @@
       <c r="C76" s="1">
         <v>5</v>
       </c>
-      <c r="D76" s="1">
-        <v>2</v>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E76" s="1">
         <v>35</v>
@@ -2395,8 +2407,8 @@
       <c r="C77" s="1">
         <v>6</v>
       </c>
-      <c r="D77" s="1">
-        <v>2</v>
+      <c r="D77" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E77" s="1">
         <v>9</v>
@@ -2421,8 +2433,8 @@
       <c r="C78" s="1">
         <v>7</v>
       </c>
-      <c r="D78" s="1">
-        <v>2</v>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E78" s="1">
         <v>15</v>
@@ -2447,8 +2459,8 @@
       <c r="C79" s="1">
         <v>8</v>
       </c>
-      <c r="D79" s="1">
-        <v>2</v>
+      <c r="D79" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E79" s="1">
         <v>6</v>
@@ -2473,8 +2485,8 @@
       <c r="C80" s="1">
         <v>9</v>
       </c>
-      <c r="D80" s="1">
-        <v>2</v>
+      <c r="D80" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E80" s="1">
         <v>76</v>
@@ -2499,8 +2511,8 @@
       <c r="C81" s="1">
         <v>10</v>
       </c>
-      <c r="D81" s="1">
-        <v>2</v>
+      <c r="D81" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E81" s="1">
         <v>55</v>
@@ -2525,8 +2537,8 @@
       <c r="C82" s="1">
         <v>1</v>
       </c>
-      <c r="D82" s="1">
-        <v>3</v>
+      <c r="D82" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E82" s="1">
         <v>10</v>
@@ -2551,8 +2563,8 @@
       <c r="C83" s="1">
         <v>2</v>
       </c>
-      <c r="D83" s="1">
-        <v>3</v>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E83" s="1">
         <v>25</v>
@@ -2577,8 +2589,8 @@
       <c r="C84" s="1">
         <v>3</v>
       </c>
-      <c r="D84" s="1">
-        <v>3</v>
+      <c r="D84" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E84" s="1">
         <v>17</v>
@@ -2603,8 +2615,8 @@
       <c r="C85" s="1">
         <v>4</v>
       </c>
-      <c r="D85" s="1">
-        <v>3</v>
+      <c r="D85" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -2629,8 +2641,8 @@
       <c r="C86" s="1">
         <v>5</v>
       </c>
-      <c r="D86" s="1">
-        <v>3</v>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E86" s="1">
         <v>10</v>
@@ -2655,8 +2667,8 @@
       <c r="C87" s="1">
         <v>6</v>
       </c>
-      <c r="D87" s="1">
-        <v>3</v>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E87" s="1">
         <v>50</v>
@@ -2681,8 +2693,8 @@
       <c r="C88" s="1">
         <v>7</v>
       </c>
-      <c r="D88" s="1">
-        <v>3</v>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E88" s="1">
         <v>13</v>
@@ -2707,8 +2719,8 @@
       <c r="C89" s="1">
         <v>8</v>
       </c>
-      <c r="D89" s="1">
-        <v>3</v>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -2733,8 +2745,8 @@
       <c r="C90" s="1">
         <v>9</v>
       </c>
-      <c r="D90" s="1">
-        <v>3</v>
+      <c r="D90" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E90" s="1">
         <v>23</v>
@@ -2759,8 +2771,8 @@
       <c r="C91" s="1">
         <v>10</v>
       </c>
-      <c r="D91" s="1">
-        <v>3</v>
+      <c r="D91" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E91" s="1">
         <v>12</v>
@@ -2786,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E92" s="1">
         <v>2</v>
@@ -2812,7 +2824,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E93" s="1">
         <v>29</v>
@@ -2838,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E94" s="1">
         <v>8</v>
@@ -2864,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E95" s="1">
         <v>25</v>
@@ -2890,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E96" s="1">
         <v>45</v>
@@ -2916,7 +2928,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E97" s="1">
         <v>81</v>
@@ -2942,7 +2954,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E98" s="1">
         <v>13</v>
@@ -2968,7 +2980,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E99" s="1">
         <v>34</v>
@@ -2994,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E100" s="1">
         <v>56</v>
@@ -3020,7 +3032,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E101" s="1">
         <v>63</v>
@@ -3046,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E102" s="1">
         <v>4</v>
@@ -3072,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E103" s="1">
         <v>22</v>
@@ -3098,7 +3110,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E104" s="1">
         <v>2</v>
@@ -3124,7 +3136,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E105" s="1">
         <v>18</v>
@@ -3150,7 +3162,7 @@
         <v>5</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E106" s="1">
         <v>9</v>
@@ -3176,7 +3188,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E107" s="1">
         <v>10</v>
@@ -3202,7 +3214,7 @@
         <v>7</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E108" s="1">
         <v>5</v>
@@ -3228,7 +3240,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E109" s="1">
         <v>117</v>
@@ -3254,7 +3266,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E110" s="1">
         <v>44</v>
@@ -3280,7 +3292,7 @@
         <v>10</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E111" s="1">
         <v>13</v>
@@ -3306,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E112" s="1">
         <v>33</v>
@@ -3332,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E113" s="1">
         <v>10</v>
@@ -3358,7 +3370,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E114" s="1">
         <v>22</v>
@@ -3384,7 +3396,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E115" s="1">
         <v>20</v>
@@ -3410,7 +3422,7 @@
         <v>5</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E116" s="1">
         <v>6</v>
@@ -3436,7 +3448,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E117" s="1">
         <v>63</v>
@@ -3462,7 +3474,7 @@
         <v>7</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E118" s="1">
         <v>13</v>
@@ -3488,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E119" s="1">
         <v>68</v>
@@ -3514,7 +3526,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E120" s="1">
         <v>34</v>
@@ -3540,7 +3552,7 @@
         <v>10</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E121" s="1">
         <v>9</v>
@@ -3565,8 +3577,8 @@
       <c r="C122" s="1">
         <v>1</v>
       </c>
-      <c r="D122" s="1">
-        <v>1</v>
+      <c r="D122" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E122" s="1">
         <v>64</v>
@@ -3591,8 +3603,8 @@
       <c r="C123" s="1">
         <v>2</v>
       </c>
-      <c r="D123" s="1">
-        <v>1</v>
+      <c r="D123" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E123" s="1">
         <v>8</v>
@@ -3617,8 +3629,8 @@
       <c r="C124" s="1">
         <v>3</v>
       </c>
-      <c r="D124" s="1">
-        <v>1</v>
+      <c r="D124" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E124" s="1">
         <v>76</v>
@@ -3643,8 +3655,8 @@
       <c r="C125" s="1">
         <v>4</v>
       </c>
-      <c r="D125" s="1">
-        <v>1</v>
+      <c r="D125" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E125" s="1">
         <v>114</v>
@@ -3669,8 +3681,8 @@
       <c r="C126" s="1">
         <v>5</v>
       </c>
-      <c r="D126" s="1">
-        <v>1</v>
+      <c r="D126" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E126" s="1">
         <v>0</v>
@@ -3695,8 +3707,8 @@
       <c r="C127" s="1">
         <v>6</v>
       </c>
-      <c r="D127" s="1">
-        <v>1</v>
+      <c r="D127" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E127" s="1">
         <v>55</v>
@@ -3721,8 +3733,8 @@
       <c r="C128" s="1">
         <v>7</v>
       </c>
-      <c r="D128" s="1">
-        <v>1</v>
+      <c r="D128" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E128" s="1">
         <v>3</v>
@@ -3747,8 +3759,8 @@
       <c r="C129" s="1">
         <v>8</v>
       </c>
-      <c r="D129" s="1">
-        <v>1</v>
+      <c r="D129" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E129" s="1">
         <v>39</v>
@@ -3773,8 +3785,8 @@
       <c r="C130" s="1">
         <v>9</v>
       </c>
-      <c r="D130" s="1">
-        <v>1</v>
+      <c r="D130" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E130" s="1">
         <v>31</v>
@@ -3799,8 +3811,8 @@
       <c r="C131" s="1">
         <v>10</v>
       </c>
-      <c r="D131" s="1">
-        <v>1</v>
+      <c r="D131" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E131" s="1">
         <v>46</v>
@@ -3825,8 +3837,8 @@
       <c r="C132" s="1">
         <v>1</v>
       </c>
-      <c r="D132" s="1">
-        <v>2</v>
+      <c r="D132" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E132" s="1">
         <v>2</v>
@@ -3851,8 +3863,8 @@
       <c r="C133" s="1">
         <v>2</v>
       </c>
-      <c r="D133" s="1">
-        <v>2</v>
+      <c r="D133" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E133" s="1">
         <v>19</v>
@@ -3877,8 +3889,8 @@
       <c r="C134" s="1">
         <v>3</v>
       </c>
-      <c r="D134" s="1">
-        <v>2</v>
+      <c r="D134" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E134" s="1">
         <v>15</v>
@@ -3903,8 +3915,8 @@
       <c r="C135" s="1">
         <v>4</v>
       </c>
-      <c r="D135" s="1">
-        <v>2</v>
+      <c r="D135" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E135" s="1">
         <v>24</v>
@@ -3929,8 +3941,8 @@
       <c r="C136" s="1">
         <v>5</v>
       </c>
-      <c r="D136" s="1">
-        <v>2</v>
+      <c r="D136" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E136" s="1">
         <v>27</v>
@@ -3955,8 +3967,8 @@
       <c r="C137" s="1">
         <v>6</v>
       </c>
-      <c r="D137" s="1">
-        <v>2</v>
+      <c r="D137" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E137" s="1">
         <v>7</v>
@@ -3981,8 +3993,8 @@
       <c r="C138" s="1">
         <v>7</v>
       </c>
-      <c r="D138" s="1">
-        <v>2</v>
+      <c r="D138" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E138" s="1">
         <v>0</v>
@@ -4007,8 +4019,8 @@
       <c r="C139" s="1">
         <v>8</v>
       </c>
-      <c r="D139" s="1">
-        <v>2</v>
+      <c r="D139" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E139" s="1">
         <v>14</v>
@@ -4033,8 +4045,8 @@
       <c r="C140" s="1">
         <v>9</v>
       </c>
-      <c r="D140" s="1">
-        <v>2</v>
+      <c r="D140" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E140" s="1">
         <v>44</v>
@@ -4059,8 +4071,8 @@
       <c r="C141" s="1">
         <v>10</v>
       </c>
-      <c r="D141" s="1">
-        <v>2</v>
+      <c r="D141" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E141" s="1">
         <v>23</v>
@@ -4085,8 +4097,8 @@
       <c r="C142" s="1">
         <v>1</v>
       </c>
-      <c r="D142" s="1">
-        <v>3</v>
+      <c r="D142" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E142" s="1">
         <v>27</v>
@@ -4111,8 +4123,8 @@
       <c r="C143" s="1">
         <v>2</v>
       </c>
-      <c r="D143" s="1">
-        <v>3</v>
+      <c r="D143" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E143" s="1">
         <v>25</v>
@@ -4137,8 +4149,8 @@
       <c r="C144" s="1">
         <v>3</v>
       </c>
-      <c r="D144" s="1">
-        <v>3</v>
+      <c r="D144" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E144" s="1">
         <v>19</v>
@@ -4163,8 +4175,8 @@
       <c r="C145" s="1">
         <v>4</v>
       </c>
-      <c r="D145" s="1">
-        <v>3</v>
+      <c r="D145" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E145" s="1">
         <v>10</v>
@@ -4189,8 +4201,8 @@
       <c r="C146" s="1">
         <v>5</v>
       </c>
-      <c r="D146" s="1">
-        <v>3</v>
+      <c r="D146" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E146" s="1">
         <v>0</v>
@@ -4215,8 +4227,8 @@
       <c r="C147" s="1">
         <v>6</v>
       </c>
-      <c r="D147" s="1">
-        <v>3</v>
+      <c r="D147" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E147" s="1">
         <v>22</v>
@@ -4241,8 +4253,8 @@
       <c r="C148" s="1">
         <v>7</v>
       </c>
-      <c r="D148" s="1">
-        <v>3</v>
+      <c r="D148" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E148" s="1">
         <v>0</v>
@@ -4267,8 +4279,8 @@
       <c r="C149" s="1">
         <v>8</v>
       </c>
-      <c r="D149" s="1">
-        <v>3</v>
+      <c r="D149" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E149" s="1">
         <v>0</v>
@@ -4293,8 +4305,8 @@
       <c r="C150" s="1">
         <v>9</v>
       </c>
-      <c r="D150" s="1">
-        <v>3</v>
+      <c r="D150" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E150" s="1">
         <v>4</v>
@@ -4319,8 +4331,8 @@
       <c r="C151" s="1">
         <v>10</v>
       </c>
-      <c r="D151" s="1">
-        <v>3</v>
+      <c r="D151" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E151" s="1">
         <v>6</v>
@@ -4346,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E152" s="1">
         <v>0</v>
@@ -4372,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E153" s="1">
         <v>29</v>
@@ -4398,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E154" s="1">
         <v>12</v>
@@ -4424,7 +4436,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E155" s="1">
         <v>35</v>
@@ -4450,7 +4462,7 @@
         <v>5</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E156" s="1">
         <v>38</v>
@@ -4476,7 +4488,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E157" s="1">
         <v>57</v>
@@ -4502,7 +4514,7 @@
         <v>7</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E158" s="1">
         <v>0</v>
@@ -4528,7 +4540,7 @@
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E159" s="1">
         <v>11</v>
@@ -4554,7 +4566,7 @@
         <v>9</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E160" s="1">
         <v>34</v>
@@ -4580,7 +4592,7 @@
         <v>10</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E161" s="1">
         <v>56</v>
@@ -4606,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E162" s="1">
         <v>6</v>
@@ -4632,7 +4644,7 @@
         <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E163" s="1">
         <v>1</v>
@@ -4658,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E164" s="1">
         <v>0</v>
@@ -4684,7 +4696,7 @@
         <v>4</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E165" s="1">
         <v>20</v>
@@ -4710,7 +4722,7 @@
         <v>5</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E166" s="1">
         <v>6</v>
@@ -4736,7 +4748,7 @@
         <v>6</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E167" s="1">
         <v>12</v>
@@ -4762,7 +4774,7 @@
         <v>7</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E168" s="1">
         <v>5</v>
@@ -4788,7 +4800,7 @@
         <v>8</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E169" s="1">
         <v>77</v>
@@ -4814,7 +4826,7 @@
         <v>9</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E170" s="1">
         <v>36</v>
@@ -4840,7 +4852,7 @@
         <v>10</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E171" s="1">
         <v>13</v>
@@ -4866,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E172" s="1">
         <v>47</v>
@@ -4892,7 +4904,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E173" s="1">
         <v>33</v>
@@ -4918,7 +4930,7 @@
         <v>3</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E174" s="1">
         <v>14</v>
@@ -4944,7 +4956,7 @@
         <v>4</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E175" s="1">
         <v>29</v>
@@ -4970,7 +4982,7 @@
         <v>5</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E176" s="1">
         <v>4</v>
@@ -4996,7 +5008,7 @@
         <v>6</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E177" s="1">
         <v>16</v>
@@ -5022,7 +5034,7 @@
         <v>7</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E178" s="1">
         <v>2</v>
@@ -5048,7 +5060,7 @@
         <v>8</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E179" s="1">
         <v>18</v>
@@ -5074,7 +5086,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E180" s="1">
         <v>19</v>
@@ -5100,7 +5112,7 @@
         <v>10</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E181" s="1">
         <v>19</v>
@@ -5125,8 +5137,8 @@
       <c r="C182" s="1">
         <v>1</v>
       </c>
-      <c r="D182" s="1">
-        <v>1</v>
+      <c r="D182" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E182" s="1">
         <v>0</v>
@@ -5151,8 +5163,8 @@
       <c r="C183" s="1">
         <v>2</v>
       </c>
-      <c r="D183" s="1">
-        <v>1</v>
+      <c r="D183" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E183" s="1">
         <v>3</v>
@@ -5177,8 +5189,8 @@
       <c r="C184" s="1">
         <v>3</v>
       </c>
-      <c r="D184" s="1">
-        <v>1</v>
+      <c r="D184" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E184" s="1">
         <v>88</v>
@@ -5203,8 +5215,8 @@
       <c r="C185" s="1">
         <v>4</v>
       </c>
-      <c r="D185" s="1">
-        <v>1</v>
+      <c r="D185" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E185" s="1">
         <v>88</v>
@@ -5229,8 +5241,8 @@
       <c r="C186" s="1">
         <v>5</v>
       </c>
-      <c r="D186" s="1">
-        <v>1</v>
+      <c r="D186" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E186" s="1">
         <v>8</v>
@@ -5255,8 +5267,8 @@
       <c r="C187" s="1">
         <v>6</v>
       </c>
-      <c r="D187" s="1">
-        <v>1</v>
+      <c r="D187" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E187" s="1">
         <v>49</v>
@@ -5281,8 +5293,8 @@
       <c r="C188" s="1">
         <v>7</v>
       </c>
-      <c r="D188" s="1">
-        <v>1</v>
+      <c r="D188" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E188" s="1">
         <v>2</v>
@@ -5307,8 +5319,8 @@
       <c r="C189" s="1">
         <v>8</v>
       </c>
-      <c r="D189" s="1">
-        <v>1</v>
+      <c r="D189" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E189" s="1">
         <v>21</v>
@@ -5333,8 +5345,8 @@
       <c r="C190" s="1">
         <v>9</v>
       </c>
-      <c r="D190" s="1">
-        <v>1</v>
+      <c r="D190" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E190" s="1">
         <v>38</v>
@@ -5359,8 +5371,8 @@
       <c r="C191" s="1">
         <v>10</v>
       </c>
-      <c r="D191" s="1">
-        <v>1</v>
+      <c r="D191" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E191" s="1">
         <v>37</v>
@@ -5385,8 +5397,8 @@
       <c r="C192" s="1">
         <v>1</v>
       </c>
-      <c r="D192" s="1">
-        <v>2</v>
+      <c r="D192" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E192" s="1">
         <v>0</v>
@@ -5411,8 +5423,8 @@
       <c r="C193" s="1">
         <v>2</v>
       </c>
-      <c r="D193" s="1">
-        <v>2</v>
+      <c r="D193" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E193" s="1">
         <v>19</v>
@@ -5437,8 +5449,8 @@
       <c r="C194" s="1">
         <v>3</v>
       </c>
-      <c r="D194" s="1">
-        <v>2</v>
+      <c r="D194" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E194" s="1">
         <v>9</v>
@@ -5463,8 +5475,8 @@
       <c r="C195" s="1">
         <v>4</v>
       </c>
-      <c r="D195" s="1">
-        <v>2</v>
+      <c r="D195" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E195" s="1">
         <v>3</v>
@@ -5489,8 +5501,8 @@
       <c r="C196" s="1">
         <v>5</v>
       </c>
-      <c r="D196" s="1">
-        <v>2</v>
+      <c r="D196" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E196" s="1">
         <v>24</v>
@@ -5515,8 +5527,8 @@
       <c r="C197" s="1">
         <v>6</v>
       </c>
-      <c r="D197" s="1">
-        <v>2</v>
+      <c r="D197" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E197" s="1">
         <v>9</v>
@@ -5541,8 +5553,8 @@
       <c r="C198" s="1">
         <v>7</v>
       </c>
-      <c r="D198" s="1">
-        <v>2</v>
+      <c r="D198" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E198" s="1">
         <v>3</v>
@@ -5567,8 +5579,8 @@
       <c r="C199" s="1">
         <v>8</v>
       </c>
-      <c r="D199" s="1">
-        <v>2</v>
+      <c r="D199" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E199" s="1">
         <v>130</v>
@@ -5593,8 +5605,8 @@
       <c r="C200" s="1">
         <v>9</v>
       </c>
-      <c r="D200" s="1">
-        <v>2</v>
+      <c r="D200" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E200" s="1">
         <v>35</v>
@@ -5619,8 +5631,8 @@
       <c r="C201" s="1">
         <v>10</v>
       </c>
-      <c r="D201" s="1">
-        <v>2</v>
+      <c r="D201" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E201" s="1">
         <v>18</v>
@@ -5645,8 +5657,8 @@
       <c r="C202" s="1">
         <v>1</v>
       </c>
-      <c r="D202" s="1">
-        <v>3</v>
+      <c r="D202" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E202" s="1">
         <v>10</v>
@@ -5671,8 +5683,8 @@
       <c r="C203" s="1">
         <v>2</v>
       </c>
-      <c r="D203" s="1">
-        <v>3</v>
+      <c r="D203" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E203" s="1">
         <v>10</v>
@@ -5697,8 +5709,8 @@
       <c r="C204" s="1">
         <v>3</v>
       </c>
-      <c r="D204" s="1">
-        <v>3</v>
+      <c r="D204" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E204" s="1">
         <v>4</v>
@@ -5723,8 +5735,8 @@
       <c r="C205" s="1">
         <v>4</v>
       </c>
-      <c r="D205" s="1">
-        <v>3</v>
+      <c r="D205" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E205" s="1">
         <v>5</v>
@@ -5749,8 +5761,8 @@
       <c r="C206" s="1">
         <v>5</v>
       </c>
-      <c r="D206" s="1">
-        <v>3</v>
+      <c r="D206" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E206" s="1">
         <v>3</v>
@@ -5775,8 +5787,8 @@
       <c r="C207" s="1">
         <v>6</v>
       </c>
-      <c r="D207" s="1">
-        <v>3</v>
+      <c r="D207" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E207" s="1">
         <v>0</v>
@@ -5801,8 +5813,8 @@
       <c r="C208" s="1">
         <v>7</v>
       </c>
-      <c r="D208" s="1">
-        <v>3</v>
+      <c r="D208" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E208" s="1">
         <v>9</v>
@@ -5827,8 +5839,8 @@
       <c r="C209" s="1">
         <v>8</v>
       </c>
-      <c r="D209" s="1">
-        <v>3</v>
+      <c r="D209" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E209" s="1">
         <v>5</v>
@@ -5853,8 +5865,8 @@
       <c r="C210" s="1">
         <v>9</v>
       </c>
-      <c r="D210" s="1">
-        <v>3</v>
+      <c r="D210" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E210" s="1">
         <v>4</v>
@@ -5879,8 +5891,8 @@
       <c r="C211" s="1">
         <v>10</v>
       </c>
-      <c r="D211" s="1">
-        <v>3</v>
+      <c r="D211" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E211" s="1">
         <v>9</v>
@@ -5906,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E212" s="1">
         <v>4</v>
@@ -5932,7 +5944,7 @@
         <v>2</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E213" s="1">
         <v>29</v>
@@ -5958,7 +5970,7 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E214" s="1">
         <v>8</v>
@@ -5984,7 +5996,7 @@
         <v>4</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E215" s="1">
         <v>32</v>
@@ -6010,7 +6022,7 @@
         <v>5</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E216" s="1">
         <v>27</v>
@@ -6036,7 +6048,7 @@
         <v>6</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E217" s="1">
         <v>22</v>
@@ -6062,7 +6074,7 @@
         <v>7</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E218" s="1">
         <v>7</v>
@@ -6088,7 +6100,7 @@
         <v>8</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E219" s="1">
         <v>14</v>
@@ -6114,7 +6126,7 @@
         <v>9</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E220" s="1">
         <v>45</v>
@@ -6140,7 +6152,7 @@
         <v>10</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E221" s="1">
         <v>46</v>
@@ -6166,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E222" s="1">
         <v>5</v>
@@ -6192,7 +6204,7 @@
         <v>2</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E223" s="1">
         <v>8</v>
@@ -6218,7 +6230,7 @@
         <v>3</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E224" s="1">
         <v>1</v>
@@ -6244,7 +6256,7 @@
         <v>4</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E225" s="1">
         <v>7</v>
@@ -6270,7 +6282,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E226" s="1">
         <v>2</v>
@@ -6296,7 +6308,7 @@
         <v>6</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E227" s="1">
         <v>5</v>
@@ -6322,7 +6334,7 @@
         <v>7</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E228" s="1">
         <v>6</v>
@@ -6348,7 +6360,7 @@
         <v>8</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E229" s="1">
         <v>31</v>
@@ -6374,7 +6386,7 @@
         <v>9</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E230" s="1">
         <v>21</v>
@@ -6400,7 +6412,7 @@
         <v>10</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E231" s="1">
         <v>8</v>
@@ -6426,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E232" s="1">
         <v>5</v>
@@ -6452,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E233" s="1">
         <v>1</v>
@@ -6478,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E234" s="1">
         <v>5</v>
@@ -6504,7 +6516,7 @@
         <v>4</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E235" s="1">
         <v>2</v>
@@ -6530,7 +6542,7 @@
         <v>5</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E236" s="1">
         <v>1</v>
@@ -6556,7 +6568,7 @@
         <v>6</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E237" s="1">
         <v>11</v>
@@ -6582,7 +6594,7 @@
         <v>7</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E238" s="1">
         <v>2</v>
@@ -6608,7 +6620,7 @@
         <v>8</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E239" s="1">
         <v>45</v>
@@ -6634,7 +6646,7 @@
         <v>9</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E240" s="1">
         <v>9</v>
@@ -6660,7 +6672,7 @@
         <v>10</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E241" s="1">
         <v>5</v>
@@ -6685,8 +6697,8 @@
       <c r="C242" s="1">
         <v>1</v>
       </c>
-      <c r="D242" s="1">
-        <v>1</v>
+      <c r="D242" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E242" s="1">
         <v>2</v>
@@ -6711,8 +6723,8 @@
       <c r="C243" s="1">
         <v>2</v>
       </c>
-      <c r="D243" s="1">
-        <v>1</v>
+      <c r="D243" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E243" s="1">
         <v>76</v>
@@ -6737,8 +6749,8 @@
       <c r="C244" s="1">
         <v>3</v>
       </c>
-      <c r="D244" s="1">
-        <v>1</v>
+      <c r="D244" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E244" s="1">
         <v>104</v>
@@ -6763,8 +6775,8 @@
       <c r="C245" s="1">
         <v>4</v>
       </c>
-      <c r="D245" s="1">
-        <v>1</v>
+      <c r="D245" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E245" s="1">
         <v>97</v>
@@ -6789,8 +6801,8 @@
       <c r="C246" s="1">
         <v>5</v>
       </c>
-      <c r="D246" s="1">
-        <v>1</v>
+      <c r="D246" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E246" s="1">
         <v>0</v>
@@ -6815,8 +6827,8 @@
       <c r="C247" s="1">
         <v>6</v>
       </c>
-      <c r="D247" s="1">
-        <v>1</v>
+      <c r="D247" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E247" s="1">
         <v>13</v>
@@ -6841,8 +6853,8 @@
       <c r="C248" s="1">
         <v>7</v>
       </c>
-      <c r="D248" s="1">
-        <v>1</v>
+      <c r="D248" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E248" s="1">
         <v>25</v>
@@ -6867,8 +6879,8 @@
       <c r="C249" s="1">
         <v>8</v>
       </c>
-      <c r="D249" s="1">
-        <v>1</v>
+      <c r="D249" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E249" s="1">
         <v>43</v>
@@ -6893,8 +6905,8 @@
       <c r="C250" s="1">
         <v>9</v>
       </c>
-      <c r="D250" s="1">
-        <v>1</v>
+      <c r="D250" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E250" s="1">
         <v>99</v>
@@ -6919,8 +6931,8 @@
       <c r="C251" s="1">
         <v>10</v>
       </c>
-      <c r="D251" s="1">
-        <v>1</v>
+      <c r="D251" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E251" s="1">
         <v>57</v>
@@ -6945,8 +6957,8 @@
       <c r="C252" s="1">
         <v>1</v>
       </c>
-      <c r="D252" s="1">
-        <v>2</v>
+      <c r="D252" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E252" s="1">
         <v>6</v>
@@ -6971,8 +6983,8 @@
       <c r="C253" s="1">
         <v>2</v>
       </c>
-      <c r="D253" s="1">
-        <v>2</v>
+      <c r="D253" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E253" s="1">
         <v>43</v>
@@ -6997,8 +7009,8 @@
       <c r="C254" s="1">
         <v>3</v>
       </c>
-      <c r="D254" s="1">
-        <v>2</v>
+      <c r="D254" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E254" s="1">
         <v>38</v>
@@ -7023,8 +7035,8 @@
       <c r="C255" s="1">
         <v>4</v>
       </c>
-      <c r="D255" s="1">
-        <v>2</v>
+      <c r="D255" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E255" s="1">
         <v>9</v>
@@ -7049,8 +7061,8 @@
       <c r="C256" s="1">
         <v>5</v>
       </c>
-      <c r="D256" s="1">
-        <v>2</v>
+      <c r="D256" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E256" s="1">
         <v>33</v>
@@ -7075,8 +7087,8 @@
       <c r="C257" s="1">
         <v>6</v>
       </c>
-      <c r="D257" s="1">
-        <v>2</v>
+      <c r="D257" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E257" s="1">
         <v>19</v>
@@ -7101,8 +7113,8 @@
       <c r="C258" s="1">
         <v>7</v>
       </c>
-      <c r="D258" s="1">
-        <v>2</v>
+      <c r="D258" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E258" s="1">
         <v>12</v>
@@ -7127,8 +7139,8 @@
       <c r="C259" s="1">
         <v>8</v>
       </c>
-      <c r="D259" s="1">
-        <v>2</v>
+      <c r="D259" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E259" s="1">
         <v>29</v>
@@ -7153,8 +7165,8 @@
       <c r="C260" s="1">
         <v>9</v>
       </c>
-      <c r="D260" s="1">
-        <v>2</v>
+      <c r="D260" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E260" s="1">
         <v>75</v>
@@ -7179,8 +7191,8 @@
       <c r="C261" s="1">
         <v>10</v>
       </c>
-      <c r="D261" s="1">
-        <v>2</v>
+      <c r="D261" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E261" s="1">
         <v>25</v>
@@ -7205,8 +7217,8 @@
       <c r="C262" s="1">
         <v>1</v>
       </c>
-      <c r="D262" s="1">
-        <v>3</v>
+      <c r="D262" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E262" s="1">
         <v>10</v>
@@ -7231,8 +7243,8 @@
       <c r="C263" s="1">
         <v>2</v>
       </c>
-      <c r="D263" s="1">
-        <v>3</v>
+      <c r="D263" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E263" s="1">
         <v>50</v>
@@ -7257,8 +7269,8 @@
       <c r="C264" s="1">
         <v>3</v>
       </c>
-      <c r="D264" s="1">
-        <v>3</v>
+      <c r="D264" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E264" s="1">
         <v>29</v>
@@ -7283,8 +7295,8 @@
       <c r="C265" s="1">
         <v>4</v>
       </c>
-      <c r="D265" s="1">
-        <v>3</v>
+      <c r="D265" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E265" s="1">
         <v>6</v>
@@ -7309,8 +7321,8 @@
       <c r="C266" s="1">
         <v>5</v>
       </c>
-      <c r="D266" s="1">
-        <v>3</v>
+      <c r="D266" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E266" s="1">
         <v>10</v>
@@ -7335,8 +7347,8 @@
       <c r="C267" s="1">
         <v>6</v>
       </c>
-      <c r="D267" s="1">
-        <v>3</v>
+      <c r="D267" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E267" s="1">
         <v>44</v>
@@ -7361,8 +7373,8 @@
       <c r="C268" s="1">
         <v>7</v>
       </c>
-      <c r="D268" s="1">
-        <v>3</v>
+      <c r="D268" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E268" s="1">
         <v>0</v>
@@ -7387,8 +7399,8 @@
       <c r="C269" s="1">
         <v>8</v>
       </c>
-      <c r="D269" s="1">
-        <v>3</v>
+      <c r="D269" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E269" s="1">
         <v>0</v>
@@ -7413,8 +7425,8 @@
       <c r="C270" s="1">
         <v>9</v>
       </c>
-      <c r="D270" s="1">
-        <v>3</v>
+      <c r="D270" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E270" s="1">
         <v>22</v>
@@ -7439,8 +7451,8 @@
       <c r="C271" s="1">
         <v>10</v>
       </c>
-      <c r="D271" s="1">
-        <v>3</v>
+      <c r="D271" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E271" s="1">
         <v>41</v>
@@ -7492,7 +7504,7 @@
         <v>2</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E273" s="1">
         <v>10</v>
@@ -7518,7 +7530,7 @@
         <v>3</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E274" s="1">
         <v>10</v>
@@ -7544,7 +7556,7 @@
         <v>4</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E275" s="1">
         <v>55</v>
@@ -7570,7 +7582,7 @@
         <v>5</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E276" s="1">
         <v>26</v>
@@ -7596,7 +7608,7 @@
         <v>6</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E277" s="1">
         <v>43</v>
@@ -7622,7 +7634,7 @@
         <v>7</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E278" s="1">
         <v>11</v>
@@ -7648,7 +7660,7 @@
         <v>8</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E279" s="1">
         <v>26</v>
@@ -7674,7 +7686,7 @@
         <v>9</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E280" s="1">
         <v>69</v>
@@ -7700,7 +7712,7 @@
         <v>10</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E281" s="1">
         <v>56</v>
@@ -7726,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E282" s="1">
         <v>0</v>
@@ -7752,7 +7764,7 @@
         <v>2</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E283" s="1">
         <v>12</v>
@@ -7778,7 +7790,7 @@
         <v>3</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E284" s="1">
         <v>14</v>
@@ -7804,7 +7816,7 @@
         <v>4</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E285" s="1">
         <v>8</v>
@@ -7830,7 +7842,7 @@
         <v>5</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E286" s="1">
         <v>0</v>
@@ -7856,7 +7868,7 @@
         <v>6</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E287" s="1">
         <v>6</v>
@@ -7882,7 +7894,7 @@
         <v>7</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E288" s="1">
         <v>0</v>
@@ -7908,7 +7920,7 @@
         <v>8</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E289" s="1">
         <v>20</v>
@@ -7934,7 +7946,7 @@
         <v>9</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E290" s="1">
         <v>58</v>
@@ -7960,7 +7972,7 @@
         <v>10</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E291" s="1">
         <v>68</v>
@@ -7985,8 +7997,8 @@
       <c r="C292" s="1">
         <v>1</v>
       </c>
-      <c r="D292" s="3" t="s">
-        <v>2</v>
+      <c r="D292" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E292" s="1">
         <v>3</v>
@@ -8012,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E293" s="1">
         <v>12</v>
@@ -8038,7 +8050,7 @@
         <v>3</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E294" s="1">
         <v>22</v>
@@ -8064,7 +8076,7 @@
         <v>4</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E295" s="1">
         <v>21</v>
@@ -8090,7 +8102,7 @@
         <v>5</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E296" s="1">
         <v>19</v>
@@ -8116,7 +8128,7 @@
         <v>6</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E297" s="1">
         <v>18</v>
@@ -8142,7 +8154,7 @@
         <v>7</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E298" s="1">
         <v>7</v>
@@ -8168,7 +8180,7 @@
         <v>8</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E299" s="1">
         <v>33</v>
@@ -8194,7 +8206,7 @@
         <v>9</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E300" s="1">
         <v>19</v>
@@ -8220,7 +8232,7 @@
         <v>10</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E301" s="1">
         <v>31</v>
@@ -8233,6 +8245,11 @@
       </c>
       <c r="H301">
         <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D302" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
